--- a/Reports/Unit Tests.xlsx
+++ b/Reports/Unit Tests.xlsx
@@ -38,88 +38,88 @@
     <t>Tests/Unit Tests/SharedPreferencesHelperTest/sharedPreferencesHelper_SaveAndReadPersonalInformation.MD</t>
   </si>
   <si>
-    <t/>
+    <t>02/16/22 21:39:31</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>SharedPreferencesHelper_02</t>
+  </si>
+  <si>
+    <t>SharedPreferencesHelper_SavePersonalInformationFailed</t>
+  </si>
+  <si>
+    <t>Tests/Unit Tests/SharedPreferencesHelperTest/sharedPreferencesHelper_SavePersonalInformationFailed_ReturnsFalse.MD</t>
+  </si>
+  <si>
+    <t>EmailValidator_03</t>
+  </si>
+  <si>
+    <t>EmailValidator_InvalidEmailNoTld</t>
+  </si>
+  <si>
+    <t>Tests/Unit Tests/EmailValidatorTest/emailValidator_InvalidEmailNoTld_ReturnsFalse.MD</t>
+  </si>
+  <si>
+    <t>EmailValidator_02</t>
+  </si>
+  <si>
+    <t>EmailValidator_CorrectEmailSubDomain</t>
+  </si>
+  <si>
+    <t>Tests/Unit Tests/EmailValidatorTest/emailValidator_CorrectEmailSubDomain_ReturnsTrue.MD</t>
+  </si>
+  <si>
+    <t>EmailValidator_01</t>
+  </si>
+  <si>
+    <t>EmailValidator_CorrectEmailSimple</t>
+  </si>
+  <si>
+    <t>Tests/Unit Tests/EmailValidatorTest/emailValidator_CorrectEmailSimple_ReturnsTrue.MD</t>
+  </si>
+  <si>
+    <t>EmailValidator_07</t>
+  </si>
+  <si>
+    <t>EmailValidator_NullEmail</t>
+  </si>
+  <si>
+    <t>Tests/Unit Tests/EmailValidatorTest/emailValidator_NullEmail_ReturnsFalse.MD</t>
+  </si>
+  <si>
+    <t>EmailValidator_04</t>
+  </si>
+  <si>
+    <t>EmailValidator_InvalidEmailDoubleDot</t>
+  </si>
+  <si>
+    <t>Tests/Unit Tests/EmailValidatorTest/emailValidator_InvalidEmailDoubleDot_ReturnsFalse.MD</t>
+  </si>
+  <si>
+    <t>EmailValidator_06</t>
+  </si>
+  <si>
+    <t>EmailValidator_EmptyString</t>
+  </si>
+  <si>
+    <t>Tests/Unit Tests/EmailValidatorTest/emailValidator_EmptyString_ReturnsFalse.MD</t>
+  </si>
+  <si>
+    <t>EmailValidator_05</t>
+  </si>
+  <si>
+    <t>EmailValidator_InvalidEmailNoUsername</t>
+  </si>
+  <si>
+    <t>Tests/Unit Tests/EmailValidatorTest/emailValidator_InvalidEmailNoUsername_ReturnsFalse.MD</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
   <si>
     <t>Not executed</t>
-  </si>
-  <si>
-    <t>SharedPreferencesHelper_02</t>
-  </si>
-  <si>
-    <t>SharedPreferencesHelper_SavePersonalInformationFailed</t>
-  </si>
-  <si>
-    <t>Tests/Unit Tests/SharedPreferencesHelperTest/sharedPreferencesHelper_SavePersonalInformationFailed_ReturnsFalse.MD</t>
-  </si>
-  <si>
-    <t>EmailValidator_03</t>
-  </si>
-  <si>
-    <t>EmailValidator_InvalidEmailNoTld</t>
-  </si>
-  <si>
-    <t>Tests/Unit Tests/EmailValidatorTest/emailValidator_InvalidEmailNoTld_ReturnsFalse.MD</t>
-  </si>
-  <si>
-    <t>EmailValidator_02</t>
-  </si>
-  <si>
-    <t>EmailValidator_CorrectEmailSubDomain</t>
-  </si>
-  <si>
-    <t>Tests/Unit Tests/EmailValidatorTest/emailValidator_CorrectEmailSubDomain_ReturnsTrue.MD</t>
-  </si>
-  <si>
-    <t>EmailValidator_01</t>
-  </si>
-  <si>
-    <t>EmailValidator_CorrectEmailSimple</t>
-  </si>
-  <si>
-    <t>Tests/Unit Tests/EmailValidatorTest/emailValidator_CorrectEmailSimple_ReturnsTrue.MD</t>
-  </si>
-  <si>
-    <t>EmailValidator_07</t>
-  </si>
-  <si>
-    <t>EmailValidator_NullEmail</t>
-  </si>
-  <si>
-    <t>Tests/Unit Tests/EmailValidatorTest/emailValidator_NullEmail_ReturnsFalse.MD</t>
-  </si>
-  <si>
-    <t>EmailValidator_04</t>
-  </si>
-  <si>
-    <t>EmailValidator_InvalidEmailDoubleDot</t>
-  </si>
-  <si>
-    <t>Tests/Unit Tests/EmailValidatorTest/emailValidator_InvalidEmailDoubleDot_ReturnsFalse.MD</t>
-  </si>
-  <si>
-    <t>EmailValidator_06</t>
-  </si>
-  <si>
-    <t>EmailValidator_EmptyString</t>
-  </si>
-  <si>
-    <t>Tests/Unit Tests/EmailValidatorTest/emailValidator_EmptyString_ReturnsFalse.MD</t>
-  </si>
-  <si>
-    <t>EmailValidator_05</t>
-  </si>
-  <si>
-    <t>EmailValidator_InvalidEmailNoUsername</t>
-  </si>
-  <si>
-    <t>Tests/Unit Tests/EmailValidatorTest/emailValidator_InvalidEmailNoUsername_ReturnsFalse.MD</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>Suspended</t>
@@ -210,10 +210,10 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
@@ -233,7 +233,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -256,10 +256,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G4" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
